--- a/docs/shrcore/shr-core-MedicationRequest-model.xlsx
+++ b/docs/shrcore/shr-core-MedicationRequest-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$47</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="193">
   <si>
     <t>Path</t>
   </si>
@@ -189,6 +189,12 @@
     <t>A state that relates to the workflow or interpretation of this resource. Certain status values can modify the meaning of the resource, for example, entered-in-error. When a boolean value is used, Status of true indicates the record is active, false means inactive.</t>
   </si>
   <si>
+    <t>shr-core-MedicationRequest-model.statusReason</t>
+  </si>
+  <si>
+    <t>Captures the reason for the current state of the procedure.</t>
+  </si>
+  <si>
     <t>shr-core-MedicationRequest-model.identifier</t>
   </si>
   <si>
@@ -217,10 +223,10 @@
 </t>
   </si>
   <si>
-    <t>shr-core-MedicationRequest-model.careContext[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare-model]]}
+    <t>shr-core-MedicationRequest-model.careContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter-model]]}
 </t>
   </si>
   <si>
@@ -261,96 +267,14 @@
 </t>
   </si>
   <si>
-    <t>shr-core-MedicationRequest-model.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DomainResource-model]]}
+    <t>shr-core-MedicationRequest-model.medicationReasonReference[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DiagnosticReport-model]]}
 </t>
   </si>
   <si>
-    <t>The justification, as reference to a condition or observation.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.basedOn</t>
-  </si>
-  <si>
-    <t>The proposal, order, or plan that is partly or wholly fulfilled by this item.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.code</t>
-  </si>
-  <si>
-    <t>The main type identifier for a lab, procedure, condition, etc., usually drawn from a controlled vocabulary.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.category</t>
-  </si>
-  <si>
-    <t>The general type or class of this item.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.requester[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device-model]]}
-</t>
-  </si>
-  <si>
-    <t>The person or organization originating this referral</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.requestIntent</t>
-  </si>
-  <si>
-    <t>Indicates the level of authority/intentionality associated with the request and where the request fits into the workflow chain.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-request-intent</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.expectedPerformanceTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When an action should be done. If the action is a series or recurs (e.g. daily blood sugar testing in the morning) then a Timing can be used to describe the periodicity.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.expectedPerformer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization-model]]}
-</t>
-  </si>
-  <si>
-    <t>Who this request is being addressed to.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.expectedPerformerType</t>
-  </si>
-  <si>
-    <t>What type of party should carry out the testing.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.priorityCode[x]</t>
-  </si>
-  <si>
-    <t>positiveInt {[]} {[]}
-Coding {[]} {[]}</t>
-  </si>
-  <si>
-    <t>An indication of the importance of an action relative to other actions.</t>
+    <t>Condition or observation that supports why the medication is being/was taken</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -358,126 +282,6 @@
   </si>
   <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.priorityCodeCoding</t>
-  </si>
-  <si>
-    <t>codeableConcept</t>
-  </si>
-  <si>
-    <t>PositiveInt or code representing an indication of the importance of an action relative to other actions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-request-priority</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.annotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Annotation-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.medicationCodeOrReference[x]</t>
-  </si>
-  <si>
-    <t>Coding {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication-model]]}</t>
-  </si>
-  <si>
-    <t>A choice of a medication code or reference.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.medicationCodeOrReferenceCoding</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t>A set of codes drawn from different coding systems, representing the same concept.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://h7.org/fhir/us/core/ValueSet/us-core-medication-codes</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.dosage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Dosage-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The dosage of the medication. The data structure is flexible and can describe a dosage prescribed, administered, or reported.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.numberOfRefillsAllowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The maximum number of times the dispense can be repeated. For medication dispense, this integer does NOT include the original order dispense. This means that if an order indicates dispense 30 tablets plus 3 repeats, then the order can be dispensed a total of 4 times and the patient can receive a total of 120 tablets.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.quantityPerDispense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-SimpleQuantity-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The amount that is to be dispensed for one fill.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.supplyDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Duration-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Identifies the period time over which the supplied product is expected to be used, or the length of time the dispense is expected to last.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0449238
-</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.substitutionAllowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Whether substitution is allowed or not.</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.substitutionReason</t>
-  </si>
-  <si>
-    <t>Why should (not) substitution be made.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
-  </si>
-  <si>
-    <t>shr-core-MedicationRequest-model.medicationReasonReference[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DiagnosticReport-model]]}
-</t>
-  </si>
-  <si>
-    <t>Condition or observation that supports why the medication is being/was taken</t>
   </si>
   <si>
     <t>shr-core-MedicationRequest-model.medicationReasonReferenceShr-core-Condition-model</t>
@@ -524,6 +328,320 @@
   <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DiagnosticReport-model]]}
 </t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.medicationBasedOn[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ServiceRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>MedicationBasedOn</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.medicationBasedOnShr-core-ServiceRequest-model</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ServiceRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.medicationBasedOnShr-core-MedicationRequest-model</t>
+  </si>
+  <si>
+    <t>MedicationRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>An order for a medication to be dispensed and instructions for use.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.medicationBasedOnShr-core-ReferralRequest-model</t>
+  </si>
+  <si>
+    <t>ReferralRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>Used to record and send details about a request for referral service or transfer of a patient to the care of another provider or provider organization.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.medicationBasedOnShr-core-ProcedureRequest-model</t>
+  </si>
+  <si>
+    <t>ProcedureRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>A request for a procedure to be performed. May be a proposal or an order.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.code</t>
+  </si>
+  <si>
+    <t>The main type identifier for a lab, procedure, condition, etc., usually drawn from a controlled vocabulary.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.category</t>
+  </si>
+  <si>
+    <t>The general type or class of this item.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.requester[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device-model]]}
+</t>
+  </si>
+  <si>
+    <t>The person or organization originating this referral</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.requestIntent</t>
+  </si>
+  <si>
+    <t>Indicates the level of authority/intentionality associated with the request and where the request fits into the workflow chain.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-request-intent</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.expectedPerformanceTime[x]</t>
+  </si>
+  <si>
+    <t>dateTime {[]} {[]}
+http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Timing-model {[]} {[]}</t>
+  </si>
+  <si>
+    <t>When an action should be done. If the action is a series or recurs (e.g. daily blood sugar testing in the morning) then a Timing can be used to describe the periodicity.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.expectedPerformerType</t>
+  </si>
+  <si>
+    <t>What type of party should carry out the testing.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.expectedPerformer[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device-model]]}
+</t>
+  </si>
+  <si>
+    <t>Who this request is being addressed to.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.priorityCode[x]</t>
+  </si>
+  <si>
+    <t>positiveInt {[]} {[]}
+Coding {[]} {[]}</t>
+  </si>
+  <si>
+    <t>An indication of the importance of an action relative to other actions.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.priorityCodeCoding</t>
+  </si>
+  <si>
+    <t>codeableConcept</t>
+  </si>
+  <si>
+    <t>PositiveInt or code representing an indication of the importance of an action relative to other actions.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-request-priority</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Annotation-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.doNotPerform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A flag, when set to true, indicates that the service/procedure should NOT be performed.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Indicates if this record was captured as a secondary 'reported' record rather than as an original primary source-of-truth record. It may also indicate the source of the report.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.reported.value[x]</t>
+  </si>
+  <si>
+    <t>boolean {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-InformationSource-model]]}</t>
+  </si>
+  <si>
+    <t>Boolean or InformationSource representing indicates if this record was captured as a secondary 'reported' record rather than as an original primary source-of-truth record. It may also indicate the source of the report.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.reported.medicationInformationSource</t>
+  </si>
+  <si>
+    <t>informationSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MedicationInformationSource-model]]}
+</t>
+  </si>
+  <si>
+    <t>The informant for this medication statement.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.medicationCodeOrReference[x]</t>
+  </si>
+  <si>
+    <t>Coding {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication-model]]}</t>
+  </si>
+  <si>
+    <t>A choice of a medication code or reference.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.medicationCodeOrReferenceCoding</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>A set of codes drawn from different coding systems, representing the same concept.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://h7.org/fhir/us/core/ValueSet/us-core-medication-codes</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.supportingInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DomainResource-model]]}
+</t>
+  </si>
+  <si>
+    <t>Additional information to support this request.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model]]}
+</t>
+  </si>
+  <si>
+    <t>The actor who created the item and it responsible for the content (regardless of the information source or who recorded it). If only the author is given, it is assumed the author is the information source and the recorder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C2220264
+</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.groupIdentifier</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.courseOfTherapyType</t>
+  </si>
+  <si>
+    <t>The description of the overall pattern of the administration of the medication to the patient.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Coverage-model]]}
+</t>
+  </si>
+  <si>
+    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be needed for delivering the requested service.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0021682 (HealthInsurance)
+</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.dosage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Dosage-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The dosage of the medication. The data structure is flexible and can describe a dosage prescribed, administered, or reported.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.dispenseRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DispenseRequest-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Indicates the specific details for the dispense or medication supply part of a medication request (also known as a Medication Prescription or Medication Order). Note that this information is not always sent with the order. There may be in some settings (e.g. hospitals) institutional or system support for completing the dispense details in the pharmacy department.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.substitution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Substitution-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Indicates whether or not substitution can or should be part of the dispense. In some cases, substitution must happen, in other cases substitution must not happen. This block explains the prescriber's intent. If nothing is specified substitution may be done.</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationRequest-model.replaces</t>
+  </si>
+  <si>
+    <t>Request(s) replaced by this request</t>
   </si>
 </sst>
 </file>
@@ -672,7 +790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AI47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -682,7 +800,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="89.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.8359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.5078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -705,13 +823,13 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.12890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.15625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="61.75390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="68.828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -1418,7 +1536,7 @@
         <v>37</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>36</v>
@@ -1430,13 +1548,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1493,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>36</v>
@@ -1504,7 +1622,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1512,10 +1630,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>36</v>
@@ -1527,13 +1645,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1569,7 +1687,7 @@
         <v>36</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>36</v>
@@ -1584,13 +1702,13 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>36</v>
@@ -1601,7 +1719,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1609,7 +1727,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>41</v>
@@ -1624,13 +1742,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1666,7 +1784,7 @@
         <v>36</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>36</v>
@@ -1681,10 +1799,10 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>41</v>
@@ -1698,7 +1816,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1706,7 +1824,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>41</v>
@@ -1721,13 +1839,13 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>68</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1763,7 +1881,7 @@
         <v>36</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1778,10 +1896,10 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>41</v>
@@ -1795,7 +1913,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1803,7 +1921,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>41</v>
@@ -1818,13 +1936,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1851,14 +1969,16 @@
         <v>36</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X12" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>36</v>
@@ -1873,10 +1993,10 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>41</v>
@@ -1890,7 +2010,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1901,7 +2021,7 @@
         <v>37</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>36</v>
@@ -1913,13 +2033,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1946,16 +2066,14 @@
         <v>36</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>36</v>
@@ -1970,13 +2088,13 @@
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>36</v>
@@ -1987,7 +2105,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1998,7 +2116,7 @@
         <v>37</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>36</v>
@@ -2010,7 +2128,7 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>80</v>
@@ -2055,25 +2173,23 @@
         <v>36</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>36</v>
@@ -2084,15 +2200,17 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>41</v>
@@ -2107,13 +2225,13 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2164,7 +2282,7 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
@@ -2181,15 +2299,17 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>41</v>
@@ -2204,13 +2324,13 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2237,11 +2357,13 @@
         <v>36</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>36</v>
@@ -2259,7 +2381,7 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
@@ -2276,9 +2398,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>36</v>
       </c>
@@ -2299,13 +2423,13 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2356,10 +2480,10 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>41</v>
@@ -2373,7 +2497,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2381,10 +2505,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>36</v>
@@ -2396,13 +2520,13 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2429,35 +2553,35 @@
         <v>36</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>36</v>
@@ -2468,15 +2592,17 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>41</v>
@@ -2491,13 +2617,13 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2548,13 +2674,13 @@
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>36</v>
@@ -2565,18 +2691,20 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>36</v>
@@ -2588,13 +2716,13 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2645,7 +2773,7 @@
         <v>36</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>37</v>
@@ -2662,18 +2790,20 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>36</v>
@@ -2685,13 +2815,13 @@
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2742,13 +2872,13 @@
         <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>36</v>
@@ -2759,15 +2889,17 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>41</v>
@@ -2782,13 +2914,13 @@
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2827,23 +2959,25 @@
         <v>36</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>36</v>
@@ -2854,17 +2988,15 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>41</v>
@@ -2882,10 +3014,10 @@
         <v>45</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2912,11 +3044,13 @@
         <v>36</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="X23" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y23" t="s" s="2">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>36</v>
@@ -2934,10 +3068,10 @@
         <v>36</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>41</v>
@@ -2951,7 +3085,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -2974,13 +3108,13 @@
         <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3007,13 +3141,11 @@
         <v>36</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>36</v>
@@ -3031,7 +3163,7 @@
         <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>37</v>
@@ -3048,7 +3180,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3071,13 +3203,13 @@
         <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3116,17 +3248,19 @@
         <v>36</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3143,11 +3277,9 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>36</v>
       </c>
@@ -3171,10 +3303,10 @@
         <v>45</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3201,11 +3333,11 @@
         <v>36</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>36</v>
@@ -3223,7 +3355,7 @@
         <v>36</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3240,7 +3372,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3263,13 +3395,13 @@
         <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3320,7 +3452,7 @@
         <v>36</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>37</v>
@@ -3337,7 +3469,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3360,13 +3492,13 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3417,7 +3549,7 @@
         <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>37</v>
@@ -3434,7 +3566,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3457,13 +3589,13 @@
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3514,7 +3646,7 @@
         <v>36</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>37</v>
@@ -3531,7 +3663,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3554,13 +3686,13 @@
         <v>36</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3596,22 +3728,20 @@
         <v>36</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>37</v>
@@ -3628,15 +3758,17 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>41</v>
@@ -3651,13 +3783,13 @@
         <v>36</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3684,13 +3816,11 @@
         <v>36</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>36</v>
@@ -3708,10 +3838,10 @@
         <v>36</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>41</v>
@@ -3725,7 +3855,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3748,13 +3878,13 @@
         <v>36</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -3781,11 +3911,13 @@
         <v>36</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>36</v>
@@ -3803,7 +3935,7 @@
         <v>36</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>37</v>
@@ -3820,7 +3952,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -3843,13 +3975,13 @@
         <v>36</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -3888,17 +4020,19 @@
         <v>36</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AB33" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AC33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>37</v>
@@ -3915,17 +4049,15 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>41</v>
@@ -3940,13 +4072,13 @@
         <v>36</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -3997,7 +4129,7 @@
         <v>36</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>37</v>
@@ -4014,11 +4146,9 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>36</v>
       </c>
@@ -4039,13 +4169,13 @@
         <v>36</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4084,22 +4214,20 @@
         <v>36</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>41</v>
@@ -4113,10 +4241,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>36</v>
@@ -4138,13 +4266,13 @@
         <v>36</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4195,10 +4323,10 @@
         <v>36</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>41</v>
@@ -4207,11 +4335,1076 @@
         <v>36</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB37" s="2"/>
+      <c r="AC37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X38" s="2"/>
+      <c r="Y38" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI47" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI36">
+  <autoFilter ref="A1:AI47">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4221,7 +5414,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI35">
+  <conditionalFormatting sqref="A2:AI46">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
